--- a/Database/template.xlsx
+++ b/Database/template.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="14">
   <si>
     <t>التاريخ :</t>
   </si>
@@ -52,14 +52,7 @@
     <t/>
   </si>
   <si>
-    <t>مـكـتـب الـمـنـــــار
-للتجارة و التوزيع</t>
-  </si>
-  <si>
     <t>م</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> بيان تسليم</t>
   </si>
   <si>
     <t>الاجمالي</t>
@@ -68,8 +61,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -784,7 +777,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -819,7 +811,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -995,47 +986,43 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="13.375" customWidth="1"/>
-    <col min="2" max="2" width="8.75" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
     <col min="3" max="3" width="5.5" customWidth="1"/>
     <col min="4" max="4" width="4.625" customWidth="1"/>
-    <col min="5" max="5" width="34.875" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3" style="3" customWidth="1"/>
+    <col min="5" max="5" width="34.625" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="7" max="7" width="3.25" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E1" s="48" t="s">
-        <v>12</v>
-      </c>
+    <row r="1" spans="1:10" ht="17.25" customHeight="1">
+      <c r="E1" s="48"/>
       <c r="F1" s="48"/>
     </row>
-    <row r="2" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="24.75" customHeight="1">
       <c r="E2" s="48"/>
       <c r="F2" s="48"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="15.75">
       <c r="A3" s="49"/>
       <c r="B3" s="50"/>
       <c r="C3" s="56" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="56"/>
-      <c r="E3" s="10" t="s">
-        <v>14</v>
-      </c>
+      <c r="E3" s="10"/>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15.75">
       <c r="A4" s="5"/>
       <c r="B4" s="4"/>
       <c r="C4" s="1"/>
@@ -1043,7 +1030,7 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="15.75">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1051,7 +1038,7 @@
       <c r="E5" s="47"/>
       <c r="F5" s="47"/>
     </row>
-    <row r="6" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="16.5" thickBot="1">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1059,7 +1046,7 @@
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
     </row>
-    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="15">
       <c r="A7" s="20" t="s">
         <v>1</v>
       </c>
@@ -1077,10 +1064,10 @@
         <v>5</v>
       </c>
       <c r="G7" s="54" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" thickBot="1">
       <c r="A8" s="21" t="s">
         <v>6</v>
       </c>
@@ -1099,10 +1086,10 @@
       </c>
       <c r="G8" s="55"/>
     </row>
-    <row r="9" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="19.5" customHeight="1">
       <c r="A9" s="41" t="str">
         <f>IF((((12*C9)+D9)*B9)&gt;0,(((12*C9)+D9)*B9)," ")</f>
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="B9" s="42"/>
       <c r="C9" s="35"/>
@@ -1112,10 +1099,10 @@
       <c r="G9" s="24"/>
       <c r="J9" s="30"/>
     </row>
-    <row r="10" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="19.5" customHeight="1">
       <c r="A10" s="46" t="str">
         <f>IF((((12*C10)+D10)*B10)&gt;0,(((12*C10)+D10)*B10)," ")</f>
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="B10" s="43"/>
       <c r="C10" s="37"/>
@@ -1126,10 +1113,10 @@
       </c>
       <c r="G10" s="25"/>
     </row>
-    <row r="11" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="19.5" customHeight="1">
       <c r="A11" s="46" t="str">
         <f t="shared" ref="A11:A33" si="0">IF((((12*C11)+D11)*B11)&gt;0,(((12*C11)+D11)*B11)," ")</f>
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="B11" s="43"/>
       <c r="C11" s="37"/>
@@ -1140,10 +1127,10 @@
       </c>
       <c r="G11" s="26"/>
     </row>
-    <row r="12" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="19.5" customHeight="1">
       <c r="A12" s="46" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="B12" s="43"/>
       <c r="C12" s="37"/>
@@ -1154,10 +1141,10 @@
       </c>
       <c r="G12" s="27"/>
     </row>
-    <row r="13" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="19.5" customHeight="1">
       <c r="A13" s="46" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="B13" s="43"/>
       <c r="C13" s="37"/>
@@ -1168,10 +1155,10 @@
       </c>
       <c r="G13" s="27"/>
     </row>
-    <row r="14" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="19.5" customHeight="1">
       <c r="A14" s="46" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="B14" s="43"/>
       <c r="C14" s="37"/>
@@ -1182,10 +1169,10 @@
       </c>
       <c r="G14" s="27"/>
     </row>
-    <row r="15" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="19.5" customHeight="1">
       <c r="A15" s="46" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="B15" s="43"/>
       <c r="C15" s="37"/>
@@ -1196,10 +1183,10 @@
       </c>
       <c r="G15" s="27"/>
     </row>
-    <row r="16" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="19.5" customHeight="1">
       <c r="A16" s="46" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="B16" s="43"/>
       <c r="C16" s="37"/>
@@ -1210,10 +1197,10 @@
       </c>
       <c r="G16" s="27"/>
     </row>
-    <row r="17" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="19.5" customHeight="1">
       <c r="A17" s="46" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="B17" s="43"/>
       <c r="C17" s="37"/>
@@ -1224,10 +1211,10 @@
       </c>
       <c r="G17" s="27"/>
     </row>
-    <row r="18" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="19.5" customHeight="1">
       <c r="A18" s="46" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="B18" s="43"/>
       <c r="C18" s="37"/>
@@ -1238,10 +1225,10 @@
       </c>
       <c r="G18" s="27"/>
     </row>
-    <row r="19" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="19.5" customHeight="1">
       <c r="A19" s="46" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="B19" s="43"/>
       <c r="C19" s="37"/>
@@ -1252,10 +1239,10 @@
       </c>
       <c r="G19" s="27"/>
     </row>
-    <row r="20" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="19.5" customHeight="1">
       <c r="A20" s="46" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="B20" s="43"/>
       <c r="C20" s="37"/>
@@ -1266,10 +1253,10 @@
       </c>
       <c r="G20" s="27"/>
     </row>
-    <row r="21" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="19.5" customHeight="1">
       <c r="A21" s="46" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="B21" s="43"/>
       <c r="C21" s="37"/>
@@ -1280,10 +1267,10 @@
       </c>
       <c r="G21" s="27"/>
     </row>
-    <row r="22" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="19.5" customHeight="1">
       <c r="A22" s="46" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="B22" s="43"/>
       <c r="C22" s="37"/>
@@ -1294,10 +1281,10 @@
       </c>
       <c r="G22" s="27"/>
     </row>
-    <row r="23" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="19.5" customHeight="1">
       <c r="A23" s="46" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="B23" s="43"/>
       <c r="C23" s="37"/>
@@ -1308,10 +1295,10 @@
       </c>
       <c r="G23" s="27"/>
     </row>
-    <row r="24" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="19.5" customHeight="1">
       <c r="A24" s="46" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="B24" s="43"/>
       <c r="C24" s="37"/>
@@ -1322,10 +1309,10 @@
       </c>
       <c r="G24" s="27"/>
     </row>
-    <row r="25" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="19.5" customHeight="1">
       <c r="A25" s="46" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="B25" s="43"/>
       <c r="C25" s="37"/>
@@ -1336,10 +1323,10 @@
       </c>
       <c r="G25" s="27"/>
     </row>
-    <row r="26" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="19.5" customHeight="1">
       <c r="A26" s="46" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="B26" s="43"/>
       <c r="C26" s="37"/>
@@ -1350,10 +1337,10 @@
       </c>
       <c r="G26" s="27"/>
     </row>
-    <row r="27" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="19.5" customHeight="1">
       <c r="A27" s="46" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="B27" s="43"/>
       <c r="C27" s="37"/>
@@ -1364,10 +1351,10 @@
       </c>
       <c r="G27" s="27"/>
     </row>
-    <row r="28" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="19.5" customHeight="1">
       <c r="A28" s="46" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="B28" s="43"/>
       <c r="C28" s="37"/>
@@ -1378,10 +1365,10 @@
       </c>
       <c r="G28" s="27"/>
     </row>
-    <row r="29" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="19.5" customHeight="1">
       <c r="A29" s="46" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="B29" s="43"/>
       <c r="C29" s="37"/>
@@ -1392,10 +1379,10 @@
       </c>
       <c r="G29" s="27"/>
     </row>
-    <row r="30" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="19.5" customHeight="1">
       <c r="A30" s="46" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="B30" s="43"/>
       <c r="C30" s="37"/>
@@ -1406,10 +1393,10 @@
       </c>
       <c r="G30" s="27"/>
     </row>
-    <row r="31" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="19.5" customHeight="1">
       <c r="A31" s="46" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="B31" s="43"/>
       <c r="C31" s="37"/>
@@ -1420,10 +1407,10 @@
       </c>
       <c r="G31" s="27"/>
     </row>
-    <row r="32" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="19.5" customHeight="1">
       <c r="A32" s="46" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="B32" s="44"/>
       <c r="C32" s="37"/>
@@ -1434,10 +1421,10 @@
       </c>
       <c r="G32" s="28"/>
     </row>
-    <row r="33" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="21.75" customHeight="1" thickBot="1">
       <c r="A33" s="46" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="B33" s="34"/>
       <c r="C33" s="39"/>
@@ -1448,21 +1435,21 @@
       </c>
       <c r="G33" s="29"/>
     </row>
-    <row r="34" spans="1:7" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="26.25" customHeight="1" thickBot="1">
       <c r="A34" s="45" t="str">
         <f>IF(SUM(A9:A33) &gt; 0,SUM(A9:A33)," ")</f>
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="B34" s="9"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G34" s="22"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1470,7 +1457,7 @@
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -1478,7 +1465,7 @@
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="15.75">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="47" t="s">
@@ -1491,7 +1478,7 @@
       </c>
       <c r="G37" s="47"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -1499,7 +1486,7 @@
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -1507,7 +1494,7 @@
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -1515,7 +1502,7 @@
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
